--- a/input/Themes.xlsx
+++ b/input/Themes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mission\5.Programming\pythonProject\University-Schedule-Planner\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACEA45B-AAAA-40BB-8991-E3ACEBF58BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FE0923-3175-4FC3-88B7-F0AEBD522F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6312" yWindow="7848" windowWidth="3864" windowHeight="4164" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34884" yWindow="5364" windowWidth="7692" windowHeight="5424" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
